--- a/documentation/bustransit_product_backlog.xlsx
+++ b/documentation/bustransit_product_backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="10500" tabRatio="808" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="10500" tabRatio="808" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="modules" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="eis_integration" sheetId="15" r:id="rId4"/>
     <sheet name="eis_analytics" sheetId="16" r:id="rId5"/>
     <sheet name="user_stories" sheetId="2" r:id="rId6"/>
+    <sheet name="extras" sheetId="17" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modules!$A$2:$G$53</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="235">
   <si>
     <t>Modules</t>
   </si>
@@ -725,6 +726,18 @@
   </si>
   <si>
     <t>HR Officer</t>
+  </si>
+  <si>
+    <t>on going</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>for revision</t>
   </si>
 </sst>
 </file>
@@ -971,18 +984,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1000,6 +1001,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1304,15 +1317,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2436,11 +2449,11 @@
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="18">
         <f>COUNTIF(D3:D52,"&lt;&gt;"&amp;"")</f>
         <v>45</v>
@@ -2515,144 +2528,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.28515625" style="37" customWidth="1"/>
-    <col min="3" max="16384" width="47.28515625" style="35"/>
+    <col min="1" max="1" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.28515625" style="33" customWidth="1"/>
+    <col min="3" max="16384" width="47.28515625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="30" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="30" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="A2" s="31">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="31">
         <v>1</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="31" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="31">
         <v>2</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="31">
         <v>3</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="31">
         <v>4</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="31" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="31">
         <v>5</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="31" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="A8" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="A9" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="A10" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <f>ROW()-1</f>
         <v>11</v>
       </c>
@@ -2782,23 +2795,23 @@
     <col min="4" max="16384" width="47.28515625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="28" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2981,8 +2994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2992,7 +3005,8 @@
     <col min="3" max="3" width="27.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" style="23" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="23"/>
+    <col min="6" max="6" width="20.85546875" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3026,6 +3040,9 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
+      <c r="F2" s="23" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
@@ -5159,7 +5176,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F349">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F349">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5167,15 +5184,59 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>modules!$D$3:$D$52</xm:f>
           </x14:formula1>
           <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>extras!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/bustransit_product_backlog.xlsx
+++ b/documentation/bustransit_product_backlog.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NelsonDelaTorre\Documents\GitHub\Bus_Transit\documentation\"/>
@@ -19,6 +19,7 @@
     <sheet name="eis_analytics" sheetId="16" r:id="rId5"/>
     <sheet name="user_stories" sheetId="2" r:id="rId6"/>
     <sheet name="extras" sheetId="17" r:id="rId7"/>
+    <sheet name="info" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">modules!$A$2:$G$53</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="248">
   <si>
     <t>Modules</t>
   </si>
@@ -738,6 +739,181 @@
   </si>
   <si>
     <t>for revision</t>
+  </si>
+  <si>
+    <t>Requirement Reference (Who said?)</t>
+  </si>
+  <si>
+    <t>As a logged in HR staff I want to see an icons and labels to understandable so I am aware of what actions to take while using the system.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Product Backlog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - list of all product features, product owner responsible for prioritizing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sprint Backlog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - the to do list for the sprint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Burndown Chart</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - chart that shows how much work remains in a sprint</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Release Backlog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - same as the product backlog, may involve one or more sprints </t>
+    </r>
+  </si>
+  <si>
+    <t>Estimating:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>User Story</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - high level definition of what the customer wants to do 'As a (user), I want (function) so that (desired result) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Story Points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - simple way to estimate a level of effort (relative scoring used - from 1 - 10, with 1 being easy and 10 being most difficult. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Business Value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - each user story has in the Product Backlog has a business value assigned - typically H, M, L</t>
+    </r>
+  </si>
+  <si>
+    <t>User Story Points (scale 1-10)</t>
+  </si>
+  <si>
+    <t>Description / Title</t>
+  </si>
+  <si>
+    <t>User restriction</t>
   </si>
 </sst>
 </file>
@@ -795,24 +971,25 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -901,7 +1078,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -985,21 +1162,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1014,6 +1179,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1295,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H53"/>
@@ -1317,15 +1495,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:8" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2449,11 +2627,11 @@
       <c r="H52" s="4"/>
     </row>
     <row r="53" spans="1:8" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="18">
         <f>COUNTIF(D3:D52,"&lt;&gt;"&amp;"")</f>
         <v>45</v>
@@ -2526,160 +2704,566 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.28515625" style="33" customWidth="1"/>
-    <col min="3" max="16384" width="47.28515625" style="31"/>
+    <col min="1" max="1" width="20.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" style="28"/>
+    <col min="4" max="4" width="23.140625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="47.28515625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
+        <f>IF(ISBLANK(B2),"",ROW()-1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34">
+        <f t="shared" ref="A3:A13" si="0">IF(ISBLANK(B3),"",ROW()-1)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="34">
+        <v>2</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="34">
+        <v>3</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="34">
+        <v>4</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="34">
+        <v>5</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="5:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="5:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>extras!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>extras!$B$1:$B$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="142.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="47.28515625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="24" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="A2" s="23">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="31">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>228</v>
-      </c>
+      <c r="B2" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="23">
         <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="31">
-        <v>2</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>229</v>
-      </c>
+      <c r="B3" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="31">
-        <v>3</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>229</v>
-      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="31">
-        <v>4</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>230</v>
-      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="31">
-        <v>5</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>229</v>
-      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="23">
         <f>ROW()-1</f>
         <v>11</v>
       </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="47.28515625" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="37" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <f>ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2713,217 +3297,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <f>ROW()-1</f>
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.85546875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="47.28515625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
-        <f t="shared" ref="A3:A11" si="0">ROW()-1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
-        <f>ROW()-1</f>
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="47.28515625" style="25"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
-        <f>ROW()-1</f>
-        <v>1</v>
-      </c>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
@@ -2992,16 +3366,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F349"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="74.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="106.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" style="23" customWidth="1"/>
     <col min="5" max="5" width="35.85546875" style="23" customWidth="1"/>
@@ -3040,9 +3415,6 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
@@ -5176,7 +5548,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F349">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F284:F349">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -5195,7 +5567,7 @@
           <x14:formula1>
             <xm:f>extras!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2</xm:sqref>
+          <xm:sqref>F2:F283</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5205,10 +5577,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5216,24 +5589,125 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>231</v>
       </c>
-    </row>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A2:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="122.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
